--- a/doc/アルバム設計書.xlsx
+++ b/doc/アルバム設計書.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\debpre\climate-reform\album-web\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9798A131-226E-446E-B9E4-4151413082F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="24795" windowHeight="8955" tabRatio="770" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4月5日時点で出来上がっているもの" sheetId="13" r:id="rId1"/>
@@ -1868,7 +1874,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2241,6 +2247,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2262,7 +2271,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2305,7 +2320,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2486,7 +2507,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2678,7 +2705,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -2730,7 +2763,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2779,7 +2818,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2828,7 +2873,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3094,6 +3145,1534 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37175A5-C7C6-4059-911B-A66D4F7C8A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="3086101"/>
+          <a:ext cx="276225" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30161</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>188911</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B439382E-DEBE-4BDF-A927-69ED8F3EC603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2468561" y="2868613"/>
+          <a:ext cx="1987550" cy="692150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>login.html)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>134939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>26986</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0557978B-EADB-4CEA-8B6C-D7C7F813E7F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="6"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1263650" y="3211514"/>
+          <a:ext cx="1201736" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4904174A-ADFD-4A64-AA08-CE442878C845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2471736" y="4371975"/>
+          <a:ext cx="1981200" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>プロフィール登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>newpage.html)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411161</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47722E79-658A-4FC0-8097-6EC394FA29EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3459161" y="3563938"/>
+          <a:ext cx="1588" cy="808037"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449261</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601661</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1105BE-6203-4E3F-A8D9-7C902D67A9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5935661" y="2868613"/>
+          <a:ext cx="1981200" cy="692150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>トップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>list.html)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>188911</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>446086</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1821BF8A-DE15-4690-8EEE-A80C8BA99E25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4456111" y="3216276"/>
+          <a:ext cx="1476375" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182561</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217486</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CEA918-7EFC-4ABA-82C0-E9D6D8ECE7B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4449761" y="3563938"/>
+          <a:ext cx="2473325" cy="1150937"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>427036</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>579436</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FB05C6-7C66-43B6-94DC-BEF4BD26577A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9571036" y="2868613"/>
+          <a:ext cx="1981200" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>プロフィール照会</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>view.html)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>598486</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>430211</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5137983-2EEA-44A0-A622-E24F191BB881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7913686" y="3216276"/>
+          <a:ext cx="1660525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62365E1D-CBD3-4816-9AFF-ACD453D4AB5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="1704975"/>
+          <a:ext cx="276225" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217486</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C2652F-E168-4A48-BEAF-CF982E6BF215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="4"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6923086" y="1962150"/>
+          <a:ext cx="4764" cy="906463"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1212896" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9900F9F-A51A-4043-92A9-5589EDCF7B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410325" y="1435100"/>
+          <a:ext cx="1212896" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ヘッダーメニュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="吹き出し: 線 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADF4011-46C3-459C-B8CB-79BCF287D424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="4391025"/>
+          <a:ext cx="2000250" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 53366"/>
+            <a:gd name="adj2" fmla="val -714"/>
+            <a:gd name="adj3" fmla="val -47626"/>
+            <a:gd name="adj4" fmla="val -32619"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アカウント情報、プロフィール情報、履歴情報を登録する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="吹き出し: 線 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A27D07-47AE-4A23-81EA-614ECFA04487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772400" y="2759075"/>
+          <a:ext cx="2000250" cy="669925"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 53366"/>
+            <a:gd name="adj2" fmla="val -714"/>
+            <a:gd name="adj3" fmla="val -32372"/>
+            <a:gd name="adj4" fmla="val -31190"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プロフィールの全件検索結果が表示される。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1195199" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5896D732-03AC-4449-BD60-09020247E226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096250" y="1987550"/>
+          <a:ext cx="1195199" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プロフィール選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD015EDA-608A-4AE6-B6C0-9BDC81FA13EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553075" y="3762375"/>
+          <a:ext cx="466794" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="677237" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED50E36F-BA63-4B50-B8AE-D8FA184A7890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4826000" y="1952625"/>
+          <a:ext cx="677237" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="吹き出し: 線 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62001429-83E0-4C65-9184-5467329741BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11169650" y="2873375"/>
+          <a:ext cx="2000250" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 53366"/>
+            <a:gd name="adj2" fmla="val -714"/>
+            <a:gd name="adj3" fmla="val -46982"/>
+            <a:gd name="adj4" fmla="val -30238"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プロフィール情報、履歴情報が閲覧できる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="878959" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A2D0C5-137A-452D-911A-788078A4A900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3473450" y="2847975"/>
+          <a:ext cx="878959" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3347</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F7FBC0-E4CD-49BB-8556-3C4FFDE2BFD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="971550"/>
+          <a:ext cx="361950" cy="3347"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C21CB37-0232-4F76-B482-02C951E20E3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="847725"/>
+          <a:ext cx="466794" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9697</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A554B693-337A-4883-B960-4EDC95F748CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1295400"/>
+          <a:ext cx="361950" cy="9697"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="885563" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366F2F40-88EF-4BF6-9A6D-B15FF2856A87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="1158875"/>
+          <a:ext cx="885563" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リダイレクト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -3107,7 +4686,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3164,7 +4749,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3221,7 +4812,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3278,7 +4875,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3335,7 +4938,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3385,7 +4994,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -3435,7 +5050,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -3485,7 +5106,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="1"/>
           <a:endCxn id="3" idx="3"/>
@@ -3535,490 +5162,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1638300" y="1709738"/>
-          <a:ext cx="771525" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="600075" y="1438275"/>
-          <a:ext cx="1038225" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>一覧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2428875" y="1000125"/>
-          <a:ext cx="1038225" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>詳細</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2409825" y="2047875"/>
-          <a:ext cx="1038225" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>追加</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4143375" y="1000125"/>
-          <a:ext cx="1038225" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>編集</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1638300" y="1271588"/>
-          <a:ext cx="790575" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3467100" y="1271588"/>
-          <a:ext cx="676275" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1638300" y="1709738"/>
-          <a:ext cx="771525" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="1"/>
-          <a:endCxn id="3" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3467100" y="1271588"/>
-          <a:ext cx="676275" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -4073,7 +5223,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形吹き出し 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形吹き出し 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4140,7 +5296,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4201,7 +5363,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4268,7 +5436,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4335,7 +5509,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4394,7 +5574,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4456,7 +5642,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4519,20 +5711,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="グループ化 17"/>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1314450" y="1500188"/>
-          <a:ext cx="1219200" cy="1571625"/>
+          <a:off x="1228725" y="1420813"/>
+          <a:ext cx="1120775" cy="1492250"/>
           <a:chOff x="1314450" y="1500188"/>
           <a:chExt cx="1219200" cy="1571625"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4581,7 +5785,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4626,7 +5836,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="グループ化 9"/>
+          <xdr:cNvPr id="10" name="グループ化 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4639,7 +5855,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="フローチャート : 組合せ 7"/>
+            <xdr:cNvPr id="8" name="フローチャート : 組合せ 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4678,7 +5900,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="スマイル 8"/>
+            <xdr:cNvPr id="9" name="スマイル 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4718,7 +5946,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4763,7 +5997,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+          <xdr:cNvPr id="15" name="テキスト ボックス 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4806,7 +6046,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+          <xdr:cNvPr id="16" name="テキスト ボックス 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4849,7 +6095,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="角丸四角形 16"/>
+          <xdr:cNvPr id="17" name="角丸四角形 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4924,20 +6176,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="グループ化 28"/>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4238625" y="1500188"/>
-          <a:ext cx="1219200" cy="1571625"/>
+          <a:off x="3933825" y="1420813"/>
+          <a:ext cx="1130300" cy="1492250"/>
           <a:chOff x="1314450" y="1500188"/>
           <a:chExt cx="1219200" cy="1571625"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4986,7 +6250,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+          <xdr:cNvPr id="31" name="正方形/長方形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5031,7 +6301,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="32" name="グループ化 31"/>
+          <xdr:cNvPr id="32" name="グループ化 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5044,7 +6320,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="フローチャート : 組合せ 36"/>
+            <xdr:cNvPr id="37" name="フローチャート : 組合せ 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5083,7 +6365,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="スマイル 37"/>
+            <xdr:cNvPr id="38" name="スマイル 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5123,7 +6411,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+          <xdr:cNvPr id="33" name="正方形/長方形 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5168,7 +6462,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+          <xdr:cNvPr id="34" name="テキスト ボックス 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5211,7 +6511,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+          <xdr:cNvPr id="35" name="テキスト ボックス 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5254,7 +6560,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="角丸四角形 35"/>
+          <xdr:cNvPr id="36" name="角丸四角形 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5329,20 +6641,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="49" name="グループ化 48"/>
+        <xdr:cNvPr id="49" name="グループ化 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2776538" y="1500188"/>
-          <a:ext cx="1219200" cy="1571625"/>
+          <a:off x="2573338" y="1420813"/>
+          <a:ext cx="1130300" cy="1492250"/>
           <a:chOff x="1314450" y="1500188"/>
           <a:chExt cx="1219200" cy="1571625"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+          <xdr:cNvPr id="50" name="正方形/長方形 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5391,7 +6715,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+          <xdr:cNvPr id="51" name="正方形/長方形 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5436,7 +6766,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="52" name="グループ化 51"/>
+          <xdr:cNvPr id="52" name="グループ化 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000034000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5449,7 +6785,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="57" name="フローチャート : 組合せ 56"/>
+            <xdr:cNvPr id="57" name="フローチャート : 組合せ 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5488,7 +6830,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="58" name="スマイル 57"/>
+            <xdr:cNvPr id="58" name="スマイル 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5528,7 +6876,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+          <xdr:cNvPr id="53" name="正方形/長方形 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5573,7 +6927,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="テキスト ボックス 53"/>
+          <xdr:cNvPr id="54" name="テキスト ボックス 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5616,7 +6976,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+          <xdr:cNvPr id="55" name="テキスト ボックス 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5659,7 +7025,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="角丸四角形 55"/>
+          <xdr:cNvPr id="56" name="角丸四角形 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5734,20 +7106,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="79" name="グループ化 78"/>
+        <xdr:cNvPr id="79" name="グループ化 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4191000" y="3471863"/>
-          <a:ext cx="1219200" cy="1571625"/>
+          <a:off x="3892550" y="3284538"/>
+          <a:ext cx="1127125" cy="1479550"/>
           <a:chOff x="1314450" y="1500188"/>
           <a:chExt cx="1219200" cy="1571625"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="正方形/長方形 79"/>
+          <xdr:cNvPr id="80" name="正方形/長方形 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5796,7 +7180,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+          <xdr:cNvPr id="81" name="正方形/長方形 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5841,7 +7231,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="82" name="グループ化 81"/>
+          <xdr:cNvPr id="82" name="グループ化 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5854,7 +7250,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="87" name="フローチャート : 組合せ 86"/>
+            <xdr:cNvPr id="87" name="フローチャート : 組合せ 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000057000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5893,7 +7295,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="88" name="スマイル 87"/>
+            <xdr:cNvPr id="88" name="スマイル 87">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000058000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5933,7 +7341,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+          <xdr:cNvPr id="83" name="正方形/長方形 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5978,7 +7392,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="テキスト ボックス 83"/>
+          <xdr:cNvPr id="84" name="テキスト ボックス 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000054000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6021,7 +7441,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="テキスト ボックス 84"/>
+          <xdr:cNvPr id="85" name="テキスト ボックス 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6064,7 +7490,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="角丸四角形 85"/>
+          <xdr:cNvPr id="86" name="角丸四角形 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6139,20 +7571,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="89" name="グループ化 88"/>
+        <xdr:cNvPr id="89" name="グループ化 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1295400" y="3471863"/>
-          <a:ext cx="1219200" cy="1571625"/>
+          <a:off x="1209675" y="3284538"/>
+          <a:ext cx="1120775" cy="1479550"/>
           <a:chOff x="1314450" y="1500188"/>
           <a:chExt cx="1219200" cy="1571625"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+          <xdr:cNvPr id="90" name="正方形/長方形 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6201,7 +7645,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+          <xdr:cNvPr id="91" name="正方形/長方形 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6246,7 +7696,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="92" name="グループ化 91"/>
+          <xdr:cNvPr id="92" name="グループ化 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6259,7 +7715,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="97" name="フローチャート : 組合せ 96"/>
+            <xdr:cNvPr id="97" name="フローチャート : 組合せ 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000061000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6298,7 +7760,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="98" name="スマイル 97"/>
+            <xdr:cNvPr id="98" name="スマイル 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000062000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6338,7 +7806,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="正方形/長方形 92"/>
+          <xdr:cNvPr id="93" name="正方形/長方形 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6383,7 +7857,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="テキスト ボックス 93"/>
+          <xdr:cNvPr id="94" name="テキスト ボックス 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6426,7 +7906,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="テキスト ボックス 94"/>
+          <xdr:cNvPr id="95" name="テキスト ボックス 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6469,7 +7955,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="角丸四角形 95"/>
+          <xdr:cNvPr id="96" name="角丸四角形 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6544,20 +8036,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="99" name="グループ化 98"/>
+        <xdr:cNvPr id="99" name="グループ化 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2757488" y="3471863"/>
-          <a:ext cx="1219200" cy="1571625"/>
+          <a:off x="2554288" y="3284538"/>
+          <a:ext cx="1143000" cy="1479550"/>
           <a:chOff x="1314450" y="1500188"/>
           <a:chExt cx="1219200" cy="1571625"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+          <xdr:cNvPr id="100" name="正方形/長方形 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000064000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6606,7 +8110,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="正方形/長方形 100"/>
+          <xdr:cNvPr id="101" name="正方形/長方形 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000065000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6651,7 +8161,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="102" name="グループ化 101"/>
+          <xdr:cNvPr id="102" name="グループ化 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6664,7 +8180,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="107" name="フローチャート : 組合せ 106"/>
+            <xdr:cNvPr id="107" name="フローチャート : 組合せ 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6703,7 +8225,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="108" name="スマイル 107"/>
+            <xdr:cNvPr id="108" name="スマイル 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6743,7 +8271,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+          <xdr:cNvPr id="103" name="正方形/長方形 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6788,7 +8322,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="テキスト ボックス 103"/>
+          <xdr:cNvPr id="104" name="テキスト ボックス 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000068000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6831,7 +8371,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="テキスト ボックス 104"/>
+          <xdr:cNvPr id="105" name="テキスト ボックス 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6874,7 +8420,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="角丸四角形 105"/>
+          <xdr:cNvPr id="106" name="角丸四角形 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6954,7 +8506,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="図 74"/>
+        <xdr:cNvPr id="75" name="図 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6991,7 +8549,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7061,7 +8625,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7136,7 +8706,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7173,7 +8749,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7233,7 +8815,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7293,7 +8881,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7353,7 +8947,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7413,7 +9013,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7473,7 +9079,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7533,7 +9145,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7593,7 +9211,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7655,7 +9279,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7717,7 +9347,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7779,7 +9415,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7841,7 +9483,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7903,7 +9551,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7965,7 +9619,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8027,7 +9687,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8089,7 +9755,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8151,7 +9823,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8213,7 +9891,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8275,7 +9959,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8337,7 +10027,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8399,7 +10095,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8461,7 +10163,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8523,7 +10231,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8585,7 +10299,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8655,7 +10375,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8725,7 +10451,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8800,7 +10532,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8837,7 +10575,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8897,7 +10641,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8957,7 +10707,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9017,7 +10773,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9077,7 +10839,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9137,7 +10905,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9197,7 +10971,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9257,7 +11037,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9317,7 +11103,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9377,7 +11169,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9437,7 +11235,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9497,7 +11301,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9557,7 +11367,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9617,7 +11433,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9677,7 +11499,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9737,7 +11565,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9797,7 +11631,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9867,7 +11707,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9937,7 +11783,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10012,7 +11864,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10193,7 +12051,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10381,7 +12245,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -10433,7 +12303,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10482,7 +12358,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10520,7 +12402,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10562,7 +12444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10595,9 +12477,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10630,6 +12529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10805,17 +12721,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="139" width="2.375" customWidth="1"/>
+    <col min="1" max="139" width="2.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>157</v>
       </c>
@@ -10865,32 +12781,32 @@
       <c r="AS1" s="31"/>
       <c r="AT1" s="31"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -10898,12 +12814,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -10911,17 +12827,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -10929,32 +12845,32 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:46" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>159</v>
       </c>
@@ -11004,7 +12920,7 @@
       <c r="AS22" s="31"/>
       <c r="AT22" s="31"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -11012,7 +12928,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -11020,7 +12936,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>160</v>
       </c>
@@ -11028,12 +12944,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>183</v>
       </c>
@@ -11045,20 +12961,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="98.75" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="3" max="3" width="98.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>38</v>
       </c>
@@ -11069,7 +12985,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>29</v>
       </c>
@@ -11080,7 +12996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>30</v>
       </c>
@@ -11091,7 +13007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>31</v>
       </c>
@@ -11102,7 +13018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>47</v>
       </c>
@@ -11113,7 +13029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>48</v>
       </c>
@@ -11124,7 +13040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>36</v>
       </c>
@@ -11142,19 +13058,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A20:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.25" customWidth="1"/>
+    <col min="1" max="2" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -11162,7 +13078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>74</v>
       </c>
@@ -11182,7 +13098,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>52</v>
       </c>
@@ -11202,7 +13118,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>54</v>
       </c>
@@ -11220,7 +13136,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>55</v>
       </c>
@@ -11238,7 +13154,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>56</v>
       </c>
@@ -11254,7 +13170,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>57</v>
       </c>
@@ -11270,7 +13186,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>58</v>
       </c>
@@ -11286,7 +13202,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>59</v>
       </c>
@@ -11302,7 +13218,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>60</v>
       </c>
@@ -11318,7 +13234,7 @@
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>61</v>
       </c>
@@ -11334,7 +13250,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>62</v>
       </c>
@@ -11350,7 +13266,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>94</v>
       </c>
@@ -11366,7 +13282,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -11374,7 +13290,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>74</v>
       </c>
@@ -11394,7 +13310,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>52</v>
       </c>
@@ -11414,7 +13330,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>82</v>
       </c>
@@ -11434,7 +13350,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>83</v>
       </c>
@@ -11450,7 +13366,7 @@
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>84</v>
       </c>
@@ -11466,7 +13382,7 @@
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>85</v>
       </c>
@@ -11484,7 +13400,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -11502,23 +13418,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A20:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>185</v>
       </c>
@@ -11526,7 +13442,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>74</v>
       </c>
@@ -11546,7 +13462,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
         <v>52</v>
       </c>
@@ -11566,7 +13482,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
         <v>54</v>
       </c>
@@ -11584,7 +13500,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>55</v>
       </c>
@@ -11602,7 +13518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
         <v>56</v>
       </c>
@@ -11618,7 +13534,7 @@
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
         <v>57</v>
       </c>
@@ -11634,7 +13550,7 @@
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>58</v>
       </c>
@@ -11650,7 +13566,7 @@
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
         <v>59</v>
       </c>
@@ -11666,7 +13582,7 @@
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
         <v>60</v>
       </c>
@@ -11682,7 +13598,7 @@
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
         <v>61</v>
       </c>
@@ -11698,7 +13614,7 @@
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
         <v>62</v>
       </c>
@@ -11714,7 +13630,7 @@
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
         <v>94</v>
       </c>
@@ -11730,7 +13646,7 @@
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -11738,7 +13654,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>74</v>
       </c>
@@ -11758,7 +13674,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
         <v>52</v>
       </c>
@@ -11778,7 +13694,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
         <v>82</v>
       </c>
@@ -11798,7 +13714,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
         <v>83</v>
       </c>
@@ -11814,7 +13730,7 @@
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="30" t="s">
         <v>84</v>
       </c>
@@ -11830,7 +13746,7 @@
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
         <v>85</v>
       </c>
@@ -11848,7 +13764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -11866,23 +13782,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -11890,7 +13806,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -11898,12 +13814,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>1</v>
       </c>
@@ -11911,7 +13827,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>2</v>
       </c>
@@ -11919,12 +13835,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <v>1</v>
       </c>
@@ -11932,7 +13848,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <v>2</v>
       </c>
@@ -11940,12 +13856,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
         <v>1</v>
       </c>
@@ -11953,7 +13869,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <v>2</v>
       </c>
@@ -11961,12 +13877,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <v>1</v>
       </c>
@@ -11974,7 +13890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <v>2</v>
       </c>
@@ -11982,12 +13898,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
         <v>1</v>
       </c>
@@ -11995,7 +13911,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
         <v>2</v>
       </c>
@@ -12011,7 +13927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -12021,19 +13937,19 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -12047,7 +13963,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -12058,12 +13974,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>1</v>
       </c>
@@ -12071,7 +13987,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>2</v>
       </c>
@@ -12079,12 +13995,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <v>1</v>
       </c>
@@ -12095,7 +14011,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <v>2</v>
       </c>
@@ -12106,12 +14022,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
         <v>1</v>
       </c>
@@ -12122,7 +14038,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <v>2</v>
       </c>
@@ -12133,12 +14049,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <v>1</v>
       </c>
@@ -12146,7 +14062,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <v>2</v>
       </c>
@@ -12154,12 +14070,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
         <v>1</v>
       </c>
@@ -12170,7 +14086,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
         <v>2</v>
       </c>
@@ -12189,132 +14105,132 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B2:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="43" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -12326,17 +14242,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="38" width="2.75" customWidth="1"/>
+    <col min="1" max="38" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>170</v>
       </c>
@@ -12386,12 +14302,12 @@
       <c r="AS1" s="31"/>
       <c r="AT1" s="31"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:46" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>166</v>
       </c>
@@ -12441,12 +14357,12 @@
       <c r="AS4" s="31"/>
       <c r="AT4" s="31"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>160</v>
       </c>
@@ -12454,12 +14370,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -12467,22 +14383,22 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:46" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>177</v>
       </c>
@@ -12532,7 +14448,7 @@
       <c r="AS16" s="31"/>
       <c r="AT16" s="31"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -12540,7 +14456,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>180</v>
       </c>
@@ -12548,7 +14464,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -12556,21 +14472,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -12583,7 +14497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -12593,27 +14507,27 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>195</v>
       </c>
@@ -12624,7 +14538,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>198</v>
       </c>
@@ -12635,7 +14549,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>200</v>
       </c>
@@ -12646,7 +14560,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>202</v>
       </c>
@@ -12657,7 +14571,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>204</v>
       </c>
@@ -12668,7 +14582,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>205</v>
       </c>
@@ -12679,7 +14593,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>207</v>
       </c>
@@ -12698,18 +14612,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Z30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="26" width="3.375" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" customWidth="1"/>
+    <col min="2" max="26" width="3.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -12736,7 +14650,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -12763,7 +14677,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="2:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -12790,7 +14704,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -12817,7 +14731,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -12844,7 +14758,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -12871,7 +14785,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -12898,7 +14812,7 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -12925,7 +14839,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -12952,7 +14866,7 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -12979,7 +14893,7 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="12"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -13006,7 +14920,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -13035,7 +14949,7 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -13064,7 +14978,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -13091,7 +15005,7 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="12"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -13118,7 +15032,7 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -13145,7 +15059,7 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -13172,7 +15086,7 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="12"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -13199,7 +15113,7 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="12"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -13226,7 +15140,7 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="12"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -13253,7 +15167,7 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="12"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -13280,7 +15194,7 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="12"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -13307,7 +15221,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -13334,7 +15248,7 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="12"/>
     </row>
-    <row r="24" spans="2:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -13361,7 +15275,7 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -13388,7 +15302,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="2:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -13415,12 +15329,12 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="9"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
@@ -13455,7 +15369,7 @@
       <c r="Y29" s="34"/>
       <c r="Z29" s="34"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B30" s="13">
         <v>1</v>
       </c>
@@ -13506,18 +15420,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AA38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="26" width="3.375" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" customWidth="1"/>
+    <col min="2" max="26" width="3.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -13544,7 +15458,7 @@
       <c r="Y1" s="17"/>
       <c r="Z1" s="18"/>
     </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -13571,7 +15485,7 @@
       <c r="Y2" s="11"/>
       <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -13598,7 +15512,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -13625,7 +15539,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -13652,7 +15566,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -13679,7 +15593,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -13706,7 +15620,7 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -13733,7 +15647,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -13760,7 +15674,7 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -13787,7 +15701,7 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="12"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -13814,7 +15728,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -13841,7 +15755,7 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -13868,7 +15782,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -13895,7 +15809,7 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="12"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -13922,7 +15836,7 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -13949,7 +15863,7 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -13976,7 +15890,7 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="12"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -14003,7 +15917,7 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="12"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -14030,7 +15944,7 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="12"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -14057,7 +15971,7 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="12"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -14084,7 +15998,7 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="12"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -14111,7 +16025,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -14138,7 +16052,7 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="12"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -14165,7 +16079,7 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -14192,7 +16106,7 @@
       <c r="Y25" s="11"/>
       <c r="Z25" s="12"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -14219,7 +16133,7 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="12"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -14246,7 +16160,7 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -14273,7 +16187,7 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -14300,7 +16214,7 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="12"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -14327,7 +16241,7 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="12"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -14354,7 +16268,7 @@
       <c r="Y31" s="11"/>
       <c r="Z31" s="12"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -14381,7 +16295,7 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="12"/>
     </row>
-    <row r="33" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -14408,12 +16322,12 @@
       <c r="Y33" s="20"/>
       <c r="Z33" s="21"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>2</v>
       </c>
@@ -14448,7 +16362,7 @@
       <c r="Y36" s="34"/>
       <c r="Z36" s="34"/>
     </row>
-    <row r="37" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13">
         <v>1</v>
       </c>
@@ -14486,7 +16400,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13">
         <v>2</v>
       </c>
@@ -14541,20 +16455,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:Z39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="26" width="3.375" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" customWidth="1"/>
+    <col min="2" max="26" width="3.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B1" s="16"/>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -14581,7 +16495,7 @@
       <c r="Y1" s="11"/>
       <c r="Z1" s="18"/>
     </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="10"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -14608,7 +16522,7 @@
       <c r="Y2" s="11"/>
       <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -14635,7 +16549,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -14662,7 +16576,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -14689,7 +16603,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -14716,7 +16630,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -14743,7 +16657,7 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -14770,7 +16684,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -14797,7 +16711,7 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -14824,7 +16738,7 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="12"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -14851,7 +16765,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -14878,7 +16792,7 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -14905,7 +16819,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -14932,7 +16846,7 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="12"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -14959,7 +16873,7 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="36"/>
@@ -14986,7 +16900,7 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="36"/>
@@ -15013,7 +16927,7 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="12"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="36"/>
@@ -15040,7 +16954,7 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="12"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="36"/>
@@ -15067,7 +16981,7 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="12"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="36"/>
@@ -15094,7 +17008,7 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="12"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="36"/>
@@ -15121,7 +17035,7 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="12"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -15148,7 +17062,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
@@ -15175,7 +17089,7 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="12"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -15202,7 +17116,7 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -15229,7 +17143,7 @@
       <c r="Y25" s="11"/>
       <c r="Z25" s="12"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -15256,7 +17170,7 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="12"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -15283,7 +17197,7 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -15310,7 +17224,7 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -15337,7 +17251,7 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="12"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -15364,7 +17278,7 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="12"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -15391,7 +17305,7 @@
       <c r="Y31" s="11"/>
       <c r="Z31" s="12"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -15418,7 +17332,7 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="12"/>
     </row>
-    <row r="33" spans="2:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -15445,12 +17359,12 @@
       <c r="Y33" s="20"/>
       <c r="Z33" s="21"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>2</v>
       </c>
@@ -15485,7 +17399,7 @@
       <c r="Y36" s="34"/>
       <c r="Z36" s="34"/>
     </row>
-    <row r="37" spans="2:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13">
         <v>1</v>
       </c>
@@ -15520,7 +17434,7 @@
       <c r="Y37" s="34"/>
       <c r="Z37" s="34"/>
     </row>
-    <row r="38" spans="2:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13">
         <v>2</v>
       </c>
@@ -15555,13 +17469,40 @@
       <c r="Y38" s="34"/>
       <c r="Z38" s="34"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:S38"/>
+    <mergeCell ref="T38:Z38"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:S36"/>
+    <mergeCell ref="T36:Z36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:S37"/>
+    <mergeCell ref="T37:Z37"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="C11:O13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="G17:N17"/>
     <mergeCell ref="G18:N18"/>
     <mergeCell ref="G19:N19"/>
     <mergeCell ref="G21:N21"/>
@@ -15572,33 +17513,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="G20:N20"/>
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="C11:O13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:S38"/>
-    <mergeCell ref="T38:Z38"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:S36"/>
-    <mergeCell ref="T36:Z36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:S37"/>
-    <mergeCell ref="T37:Z37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15607,20 +17521,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:AA39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="26" width="3.375" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" customWidth="1"/>
+    <col min="2" max="26" width="3.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B1" s="16"/>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -15647,7 +17561,7 @@
       <c r="Y1" s="11"/>
       <c r="Z1" s="18"/>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B2" s="10"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -15677,7 +17591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -15704,7 +17618,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -15731,7 +17645,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -15758,7 +17672,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -15785,7 +17699,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -15812,7 +17726,7 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -15839,7 +17753,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -15866,7 +17780,7 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -15893,7 +17807,7 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="12"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -15920,7 +17834,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -15947,7 +17861,7 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -15974,7 +17888,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -16001,7 +17915,7 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="12"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -16028,7 +17942,7 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="36"/>
@@ -16055,7 +17969,7 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="36"/>
@@ -16082,7 +17996,7 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="12"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="36"/>
@@ -16109,7 +18023,7 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="12"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="36"/>
@@ -16136,7 +18050,7 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="12"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="36"/>
@@ -16163,7 +18077,7 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="12"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="36"/>
@@ -16190,7 +18104,7 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="12"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -16217,7 +18131,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
@@ -16244,7 +18158,7 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="12"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -16271,7 +18185,7 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -16298,7 +18212,7 @@
       <c r="Y25" s="11"/>
       <c r="Z25" s="12"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -16325,7 +18239,7 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="12"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -16352,7 +18266,7 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -16379,7 +18293,7 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -16406,7 +18320,7 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="12"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -16433,7 +18347,7 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="12"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -16460,7 +18374,7 @@
       <c r="Y31" s="11"/>
       <c r="Z31" s="12"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -16487,7 +18401,7 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="12"/>
     </row>
-    <row r="33" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -16514,12 +18428,12 @@
       <c r="Y33" s="20"/>
       <c r="Z33" s="21"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>2</v>
       </c>
@@ -16554,7 +18468,7 @@
       <c r="Y36" s="34"/>
       <c r="Z36" s="34"/>
     </row>
-    <row r="37" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13">
         <v>1</v>
       </c>
@@ -16592,7 +18506,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13">
         <v>2</v>
       </c>
@@ -16627,7 +18541,7 @@
       <c r="Y38" s="34"/>
       <c r="Z38" s="34"/>
     </row>
-    <row r="39" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13">
         <v>3</v>
       </c>
@@ -16664,34 +18578,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="T36:Z36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:S37"/>
-    <mergeCell ref="T37:Z37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:S39"/>
-    <mergeCell ref="T39:Z39"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:S38"/>
-    <mergeCell ref="T38:Z38"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:S36"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:N17"/>
     <mergeCell ref="C11:O13"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:F2"/>
@@ -16704,6 +18590,34 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:O10"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:S36"/>
+    <mergeCell ref="T36:Z36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:S37"/>
+    <mergeCell ref="T37:Z37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:S39"/>
+    <mergeCell ref="T39:Z39"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:S38"/>
+    <mergeCell ref="T38:Z38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16712,20 +18626,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AA39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="26" width="3.375" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" customWidth="1"/>
+    <col min="2" max="26" width="3.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B1" s="16"/>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -16752,7 +18666,7 @@
       <c r="Y1" s="11"/>
       <c r="Z1" s="18"/>
     </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="10"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -16779,7 +18693,7 @@
       <c r="Y2" s="11"/>
       <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -16806,7 +18720,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -16833,7 +18747,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -16860,7 +18774,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -16887,7 +18801,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -16914,7 +18828,7 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -16941,7 +18855,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -16968,7 +18882,7 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -16995,7 +18909,7 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="12"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -17022,7 +18936,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -17049,7 +18963,7 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -17076,7 +18990,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -17103,7 +19017,7 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="12"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -17130,7 +19044,7 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="36"/>
@@ -17157,7 +19071,7 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="36"/>
@@ -17184,7 +19098,7 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="12"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="36"/>
@@ -17211,7 +19125,7 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="12"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="36"/>
@@ -17238,7 +19152,7 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="12"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="36"/>
@@ -17265,7 +19179,7 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="12"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="36"/>
@@ -17292,7 +19206,7 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="12"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -17319,7 +19233,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
@@ -17346,7 +19260,7 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="12"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -17373,7 +19287,7 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -17400,7 +19314,7 @@
       <c r="Y25" s="11"/>
       <c r="Z25" s="12"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -17427,7 +19341,7 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="12"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -17454,7 +19368,7 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -17481,7 +19395,7 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -17508,7 +19422,7 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="12"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -17535,7 +19449,7 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="12"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -17562,7 +19476,7 @@
       <c r="Y31" s="11"/>
       <c r="Z31" s="12"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -17589,7 +19503,7 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="12"/>
     </row>
-    <row r="33" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -17616,12 +19530,12 @@
       <c r="Y33" s="20"/>
       <c r="Z33" s="21"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>2</v>
       </c>
@@ -17656,7 +19570,7 @@
       <c r="Y36" s="34"/>
       <c r="Z36" s="34"/>
     </row>
-    <row r="37" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13">
         <v>1</v>
       </c>
@@ -17694,7 +19608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13">
         <v>2</v>
       </c>
@@ -17732,7 +19646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13">
         <v>3</v>
       </c>
@@ -17769,34 +19683,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:S39"/>
-    <mergeCell ref="T39:Z39"/>
-    <mergeCell ref="T36:Z36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:S37"/>
-    <mergeCell ref="T37:Z37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:S38"/>
-    <mergeCell ref="T38:Z38"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:S36"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:N17"/>
     <mergeCell ref="C11:O13"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:F2"/>
@@ -17809,6 +19695,34 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:O10"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:S36"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:S39"/>
+    <mergeCell ref="T39:Z39"/>
+    <mergeCell ref="T36:Z36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:S37"/>
+    <mergeCell ref="T37:Z37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:S38"/>
+    <mergeCell ref="T38:Z38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
